--- a/Документация по AGARIO/roadmap Adario.xlsx
+++ b/Документация по AGARIO/roadmap Adario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Интерация</t>
   </si>
@@ -43,116 +43,87 @@
     <t>Задачи</t>
   </si>
   <si>
-    <t>Поле канваса, игрок в виде кружка, который двигается по направлению движения мыши и кушает кружки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создание игрока </t>
-  </si>
-  <si>
-    <t>Двигать игрока и кушать кружочки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прописать канвас
-Создать classPlayer
-Сделать отрисовку игрока виде метода draw()
-Игрок двигается по направлению движения мыши (узнать что за функция и прописать ее событием)
-Прописать другие кружки, которые с помощью math.random распределяются по полю
-Обработать соприкосновение кружка и игрока, если кружок находится в площади игрока, то кружок "съеден" (пропадает)
-Обработка взаимодействия поля и игрока (игрок не выходит за поле)
-Динамичный канвас
-Камера следит за игроком 
+    <t>Agario</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Добавление сетевых игроков</t>
+  </si>
+  <si>
+    <t>Сетевые пользователи</t>
+  </si>
+  <si>
+    <t>Играть с реальными пользователями</t>
+  </si>
+  <si>
+    <t>Бонусы</t>
+  </si>
+  <si>
+    <t>Добавление бонусов, деление надвое, сбрасывание хвоста, кружки-укрытия</t>
+  </si>
+  <si>
+    <t>Прятаться от врага в укрытиях, делиться на двое и сбрасывать хвост</t>
+  </si>
+  <si>
+    <t>Знакомство с C++</t>
+  </si>
+  <si>
+    <t>Изучение основ языка программирования</t>
+  </si>
+  <si>
+    <t>26.09-03.10</t>
+  </si>
+  <si>
+    <t>Установить среду для разработки, изучить основы языка C++,
+провести аналогию с уже знакомым JS, сделать ознакомительные лабораторные работы</t>
+  </si>
+  <si>
+    <t>Изучение библиотеки SFML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подключить библиотеку SFML, научиться работать с ней на примере простых задач
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ИИ врага </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Усложнение движения игрока </t>
-  </si>
-  <si>
-    <t>Agario</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Появление одного врага в рандомном месте, он движется к игроку и есть все на пути</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Игра для пользователя усложнена появлением врага, теперь требуется не только съедать кружочки, но и убегать от противника </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проработка ИИ врага
-Движение врага по направлению к игроку
-Прописать взаимодействие кружков и врага
-Увеличение площади игроков и врага при каждом съедании
-</t>
-  </si>
-  <si>
-    <t>Добавление сетевых игроков</t>
-  </si>
-  <si>
-    <t>Сетевые пользователи</t>
-  </si>
-  <si>
-    <t>Играть с реальными пользователями</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Игрок движется с ускорением
-Появляются враги, они генерируются случайно, едят друг друга и двигаются чтобы съесть игрока
-С каждым таймингом появляется новый бот уровня
-Игра становится ограниченной по времени и появляется конец игры
-</t>
-  </si>
-  <si>
-    <t>При направлении мыши, игрок ускоряется
-Врагов стало больше
-Пользователь видит победителя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пофиксить баги (если они будут)
-Сделать ускорение игрока
-Рандомное появление врагов и регулировка их количества на поле
-</t>
-  </si>
-  <si>
-    <t>Бонусы</t>
-  </si>
-  <si>
-    <t>Добавление бонусов, деление надвое, сбрасывание хвоста, кружки-укрытия</t>
-  </si>
-  <si>
-    <t>Прятаться от врага в укрытиях, делиться на двое и сбрасывать хвост</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Соединение с сервером
+    <t>Написана однопользовательская игра (клиентская версия) на C++</t>
+  </si>
+  <si>
+    <t>Клиент на C++</t>
+  </si>
+  <si>
+    <t>Играть с ботами</t>
+  </si>
+  <si>
+    <t>Переписать уже существующую JS версию клиента на C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Сделать раздвоение массы игрока
+Рандомно геренируются кружки-укрытия, сравнение площадей - если меньше - укрытие, если больше - игрока разрывает на мелкие круги
+Игрок может выделять кружки маленькой массы</t>
+  </si>
+  <si>
+    <t>Соединение с сервером Связь сервера на JS с клиентом на C++
 Запоминание имени пользователя
 Вывод общей таблицы во время игры
-Прочесать код
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сделать раздвоение массы игрока
-Рандомно геренируются кружки-укрытия, сравнение площадей - если меньше - укрытие, если больше - игрока разрывает на мелкие круги
-Игрок может выделять кружки маленькой массы </t>
-  </si>
-  <si>
-    <t>26.06-30.06</t>
-  </si>
-  <si>
-    <t>01.07-08.07</t>
-  </si>
-  <si>
-    <t>09.07-16.07</t>
-  </si>
-  <si>
-    <t>17.07-24.07</t>
-  </si>
-  <si>
-    <t>25.07-01.08</t>
+Прочесать код</t>
+  </si>
+  <si>
+    <t>03.10-31.10</t>
+  </si>
+  <si>
+    <t>31.10-28.11</t>
+  </si>
+  <si>
+    <t>28.11-26.12</t>
+  </si>
+  <si>
+    <t>26.12-23.01</t>
   </si>
 </sst>
 </file>
@@ -338,13 +309,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -649,15 +620,18 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -667,12 +641,12 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -688,30 +662,30 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -719,79 +693,75 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="293.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="12.75" x14ac:dyDescent="0.2"/>
